--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.6727695994447</v>
+        <v>1.373217333333334</v>
       </c>
       <c r="N2">
-        <v>25.6727695994447</v>
+        <v>4.119652</v>
       </c>
       <c r="O2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="P2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="Q2">
-        <v>4997.062715346348</v>
+        <v>268.3752637215427</v>
       </c>
       <c r="R2">
-        <v>4997.062715346348</v>
+        <v>2415.377373493884</v>
       </c>
       <c r="S2">
-        <v>0.2625115078211977</v>
+        <v>0.0130544084553409</v>
       </c>
       <c r="T2">
-        <v>0.2625115078211977</v>
+        <v>0.0130544084553409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.76584945531729</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N3">
-        <v>4.76584945531729</v>
+        <v>77.106487</v>
       </c>
       <c r="O3">
-        <v>0.1565724597013771</v>
+        <v>0.7892650295534415</v>
       </c>
       <c r="P3">
-        <v>0.1565724597013771</v>
+        <v>0.7892650295534415</v>
       </c>
       <c r="Q3">
-        <v>927.6462567807588</v>
+        <v>5023.112093756147</v>
       </c>
       <c r="R3">
-        <v>927.6462567807588</v>
+        <v>45208.00884380533</v>
       </c>
       <c r="S3">
-        <v>0.04873219158213598</v>
+        <v>0.2443360691277888</v>
       </c>
       <c r="T3">
-        <v>0.04873219158213598</v>
+        <v>0.2443360691277887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>25.6727695994447</v>
+        <v>0.08316866666666667</v>
       </c>
       <c r="N4">
-        <v>25.6727695994447</v>
+        <v>0.249506</v>
       </c>
       <c r="O4">
-        <v>0.8434275402986229</v>
+        <v>0.00255395321620295</v>
       </c>
       <c r="P4">
-        <v>0.8434275402986229</v>
+        <v>0.00255395321620295</v>
       </c>
       <c r="Q4">
-        <v>2047.848416761813</v>
+        <v>16.25410072261133</v>
       </c>
       <c r="R4">
-        <v>2047.848416761813</v>
+        <v>146.286906503502</v>
       </c>
       <c r="S4">
-        <v>0.1075799537241021</v>
+        <v>0.0007906379558414855</v>
       </c>
       <c r="T4">
-        <v>0.1075799537241021</v>
+        <v>0.0007906379558414853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.76584945531729</v>
+        <v>0.1719393333333333</v>
       </c>
       <c r="N5">
-        <v>4.76584945531729</v>
+        <v>0.515818</v>
       </c>
       <c r="O5">
-        <v>0.1565724597013771</v>
+        <v>0.005279933308519127</v>
       </c>
       <c r="P5">
-        <v>0.1565724597013771</v>
+        <v>0.005279933308519127</v>
       </c>
       <c r="Q5">
-        <v>380.1591107570944</v>
+        <v>33.60303049440066</v>
       </c>
       <c r="R5">
-        <v>380.1591107570944</v>
+        <v>302.427274449606</v>
       </c>
       <c r="S5">
-        <v>0.01997096035443565</v>
+        <v>0.001634530989660542</v>
       </c>
       <c r="T5">
-        <v>0.01997096035443565</v>
+        <v>0.001634530989660542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.218964272126</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>162.218964272126</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6727695994447</v>
+        <v>5.234191333333333</v>
       </c>
       <c r="N6">
-        <v>25.6727695994447</v>
+        <v>15.702574</v>
       </c>
       <c r="O6">
-        <v>0.8434275402986229</v>
+        <v>0.1607321642363904</v>
       </c>
       <c r="P6">
-        <v>0.8434275402986229</v>
+        <v>0.1607321642363904</v>
       </c>
       <c r="Q6">
-        <v>4164.610094418842</v>
+        <v>1022.946219330428</v>
       </c>
       <c r="R6">
-        <v>4164.610094418842</v>
+        <v>9206.515973973856</v>
       </c>
       <c r="S6">
-        <v>0.2187801389836062</v>
+        <v>0.04975852688436212</v>
       </c>
       <c r="T6">
-        <v>0.2187801389836062</v>
+        <v>0.04975852688436211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>4.76584945531729</v>
+        <v>1.373217333333334</v>
       </c>
       <c r="N7">
-        <v>4.76584945531729</v>
+        <v>4.119652</v>
       </c>
       <c r="O7">
-        <v>0.1565724597013771</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="P7">
-        <v>0.1565724597013771</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="Q7">
-        <v>773.1111625184466</v>
+        <v>109.6201670342462</v>
       </c>
       <c r="R7">
-        <v>773.1111625184466</v>
+        <v>986.581503308216</v>
       </c>
       <c r="S7">
-        <v>0.04061397435794436</v>
+        <v>0.005332184552196777</v>
       </c>
       <c r="T7">
-        <v>0.04061397435794436</v>
+        <v>0.005332184552196776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.6727695994447</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N8">
-        <v>25.6727695994447</v>
+        <v>77.106487</v>
       </c>
       <c r="O8">
-        <v>0.8434275402986229</v>
+        <v>0.7892650295534415</v>
       </c>
       <c r="P8">
-        <v>0.8434275402986229</v>
+        <v>0.7892650295534415</v>
       </c>
       <c r="Q8">
-        <v>4072.532709388604</v>
+        <v>2051.733006662683</v>
       </c>
       <c r="R8">
-        <v>4072.532709388604</v>
+        <v>18465.59705996414</v>
       </c>
       <c r="S8">
-        <v>0.2139430227500459</v>
+        <v>0.09980115282930734</v>
       </c>
       <c r="T8">
-        <v>0.2139430227500459</v>
+        <v>0.09980115282930731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.76584945531729</v>
+        <v>0.08316866666666667</v>
       </c>
       <c r="N9">
-        <v>4.76584945531729</v>
+        <v>0.249506</v>
       </c>
       <c r="O9">
-        <v>0.1565724597013771</v>
+        <v>0.00255395321620295</v>
       </c>
       <c r="P9">
-        <v>0.1565724597013771</v>
+        <v>0.00255395321620295</v>
       </c>
       <c r="Q9">
-        <v>756.0180727529039</v>
+        <v>6.639126167949778</v>
       </c>
       <c r="R9">
-        <v>756.0180727529039</v>
+        <v>59.752135511548</v>
       </c>
       <c r="S9">
-        <v>0.03971602029507151</v>
+        <v>0.0003229428211121739</v>
       </c>
       <c r="T9">
-        <v>0.03971602029507151</v>
+        <v>0.0003229428211121738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.1132697218668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>30.1132697218668</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>25.6727695994447</v>
+        <v>0.1719393333333333</v>
       </c>
       <c r="N10">
-        <v>25.6727695994447</v>
+        <v>0.515818</v>
       </c>
       <c r="O10">
-        <v>0.8434275402986229</v>
+        <v>0.005279933308519127</v>
       </c>
       <c r="P10">
-        <v>0.8434275402986229</v>
+        <v>0.005279933308519127</v>
       </c>
       <c r="Q10">
-        <v>773.0910354554205</v>
+        <v>13.72544460533822</v>
       </c>
       <c r="R10">
-        <v>773.0910354554205</v>
+        <v>123.529001448044</v>
       </c>
       <c r="S10">
-        <v>0.04061291701967106</v>
+        <v>0.0006676381333532631</v>
       </c>
       <c r="T10">
-        <v>0.04061291701967106</v>
+        <v>0.000667638133353263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.1132697218668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>30.1132697218668</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.76584945531729</v>
+        <v>5.234191333333333</v>
       </c>
       <c r="N11">
-        <v>4.76584945531729</v>
+        <v>15.702574</v>
       </c>
       <c r="O11">
-        <v>0.1565724597013771</v>
+        <v>0.1607321642363904</v>
       </c>
       <c r="P11">
-        <v>0.1565724597013771</v>
+        <v>0.1607321642363904</v>
       </c>
       <c r="Q11">
-        <v>143.5153101017815</v>
+        <v>417.8311140716768</v>
       </c>
       <c r="R11">
-        <v>143.5153101017815</v>
+        <v>3760.480026645092</v>
       </c>
       <c r="S11">
-        <v>0.007539313111789552</v>
+        <v>0.02032429499203495</v>
       </c>
       <c r="T11">
-        <v>0.007539313111789552</v>
+        <v>0.02032429499203494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H12">
+        <v>487.534973</v>
+      </c>
+      <c r="I12">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J12">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.373217333333334</v>
+      </c>
+      <c r="N12">
+        <v>4.119652</v>
+      </c>
+      <c r="O12">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="P12">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="Q12">
+        <v>223.1638251765996</v>
+      </c>
+      <c r="R12">
+        <v>2008.474426589396</v>
+      </c>
+      <c r="S12">
+        <v>0.01085521700440445</v>
+      </c>
+      <c r="T12">
+        <v>0.01085521700440445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H13">
+        <v>487.534973</v>
+      </c>
+      <c r="I13">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J13">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.70216233333333</v>
+      </c>
+      <c r="N13">
+        <v>77.106487</v>
+      </c>
+      <c r="O13">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="P13">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="Q13">
+        <v>4176.901006407761</v>
+      </c>
+      <c r="R13">
+        <v>37592.10905766985</v>
+      </c>
+      <c r="S13">
+        <v>0.2031743576477554</v>
+      </c>
+      <c r="T13">
+        <v>0.2031743576477554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H14">
+        <v>487.534973</v>
+      </c>
+      <c r="I14">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J14">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.08316866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.249506</v>
+      </c>
+      <c r="O14">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="P14">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="Q14">
+        <v>13.51587788592644</v>
+      </c>
+      <c r="R14">
+        <v>121.642900973338</v>
+      </c>
+      <c r="S14">
+        <v>0.0006574443117770476</v>
+      </c>
+      <c r="T14">
+        <v>0.0006574443117770476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H15">
+        <v>487.534973</v>
+      </c>
+      <c r="I15">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J15">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1719393333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.515818</v>
+      </c>
+      <c r="O15">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="P15">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="Q15">
+        <v>27.94214607810155</v>
+      </c>
+      <c r="R15">
+        <v>251.479314702914</v>
+      </c>
+      <c r="S15">
+        <v>0.001359172164245402</v>
+      </c>
+      <c r="T15">
+        <v>0.001359172164245402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H16">
+        <v>487.534973</v>
+      </c>
+      <c r="I16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.234191333333333</v>
+      </c>
+      <c r="N16">
+        <v>15.702574</v>
+      </c>
+      <c r="O16">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="P16">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="Q16">
+        <v>850.6171101245</v>
+      </c>
+      <c r="R16">
+        <v>7655.553991120501</v>
+      </c>
+      <c r="S16">
+        <v>0.04137603086321836</v>
+      </c>
+      <c r="T16">
+        <v>0.04137603086321836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H17">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.373217333333334</v>
+      </c>
+      <c r="N17">
+        <v>4.119652</v>
+      </c>
+      <c r="O17">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="P17">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="Q17">
+        <v>219.4278276703165</v>
+      </c>
+      <c r="R17">
+        <v>1974.850449032848</v>
+      </c>
+      <c r="S17">
+        <v>0.01067348923725168</v>
+      </c>
+      <c r="T17">
+        <v>0.01067348923725168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H18">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>25.70216233333333</v>
+      </c>
+      <c r="N18">
+        <v>77.106487</v>
+      </c>
+      <c r="O18">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="P18">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="Q18">
+        <v>4106.975283761711</v>
+      </c>
+      <c r="R18">
+        <v>36962.7775538554</v>
+      </c>
+      <c r="S18">
+        <v>0.1997730048840985</v>
+      </c>
+      <c r="T18">
+        <v>0.1997730048840985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H19">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.08316866666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.249506</v>
+      </c>
+      <c r="O19">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="P19">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="Q19">
+        <v>13.28960785297156</v>
+      </c>
+      <c r="R19">
+        <v>119.606470676744</v>
+      </c>
+      <c r="S19">
+        <v>0.000646438001469473</v>
+      </c>
+      <c r="T19">
+        <v>0.0006464380014694728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H20">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1719393333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.515818</v>
+      </c>
+      <c r="O20">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="P20">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="Q20">
+        <v>27.47436511949245</v>
+      </c>
+      <c r="R20">
+        <v>247.269286075432</v>
+      </c>
+      <c r="S20">
+        <v>0.001336418190512375</v>
+      </c>
+      <c r="T20">
+        <v>0.001336418190512375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H21">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.234191333333333</v>
+      </c>
+      <c r="N21">
+        <v>15.702574</v>
+      </c>
+      <c r="O21">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="P21">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="Q21">
+        <v>836.3768836912418</v>
+      </c>
+      <c r="R21">
+        <v>7527.391953221177</v>
+      </c>
+      <c r="S21">
+        <v>0.04068335252253055</v>
+      </c>
+      <c r="T21">
+        <v>0.04068335252253054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H22">
+        <v>101.215736</v>
+      </c>
+      <c r="I22">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J22">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.373217333333334</v>
+      </c>
+      <c r="N22">
+        <v>4.119652</v>
+      </c>
+      <c r="O22">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="P22">
+        <v>0.04216891968544611</v>
+      </c>
+      <c r="Q22">
+        <v>46.33040102709689</v>
+      </c>
+      <c r="R22">
+        <v>416.973609243872</v>
+      </c>
+      <c r="S22">
+        <v>0.002253620436252298</v>
+      </c>
+      <c r="T22">
+        <v>0.002253620436252297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H23">
+        <v>101.215736</v>
+      </c>
+      <c r="I23">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J23">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.70216233333333</v>
+      </c>
+      <c r="N23">
+        <v>77.106487</v>
+      </c>
+      <c r="O23">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="P23">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="Q23">
+        <v>867.1544257866035</v>
+      </c>
+      <c r="R23">
+        <v>7804.389832079431</v>
+      </c>
+      <c r="S23">
+        <v>0.0421804450644914</v>
+      </c>
+      <c r="T23">
+        <v>0.0421804450644914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H24">
+        <v>101.215736</v>
+      </c>
+      <c r="I24">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J24">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.08316866666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.249506</v>
+      </c>
+      <c r="O24">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="P24">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="Q24">
+        <v>2.805992602935111</v>
+      </c>
+      <c r="R24">
+        <v>25.253933426416</v>
+      </c>
+      <c r="S24">
+        <v>0.0001364901260027706</v>
+      </c>
+      <c r="T24">
+        <v>0.0001364901260027706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H25">
+        <v>101.215736</v>
+      </c>
+      <c r="I25">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J25">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1719393333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.515818</v>
+      </c>
+      <c r="O25">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="P25">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="Q25">
+        <v>5.800988723560888</v>
+      </c>
+      <c r="R25">
+        <v>52.20889851204799</v>
+      </c>
+      <c r="S25">
+        <v>0.0002821738307475456</v>
+      </c>
+      <c r="T25">
+        <v>0.0002821738307475456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H26">
+        <v>101.215736</v>
+      </c>
+      <c r="I26">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J26">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.234191333333333</v>
+      </c>
+      <c r="N26">
+        <v>15.702574</v>
+      </c>
+      <c r="O26">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="P26">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="Q26">
+        <v>176.5941760560515</v>
+      </c>
+      <c r="R26">
+        <v>1589.347584504464</v>
+      </c>
+      <c r="S26">
+        <v>0.008589958974244423</v>
+      </c>
+      <c r="T26">
+        <v>0.008589958974244421</v>
       </c>
     </row>
   </sheetData>
